--- a/templates/aa.xlsx
+++ b/templates/aa.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharon/Documents/Code/NodeProject/FirstWeb/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\20170116_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -77,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,13 +95,35 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -133,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -404,24 +432,24 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="23.6640625" customWidth="1"/>
+    <col min="1" max="5" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -430,7 +458,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -444,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -453,7 +481,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
